--- a/quotations.xlsx
+++ b/quotations.xlsx
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45908.97350223424</v>
+        <v>45909.32527941401</v>
       </c>
     </row>
     <row r="3">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="M3" s="2" t="n">
-        <v>45908.97350223424</v>
+        <v>45909.32527941401</v>
       </c>
     </row>
   </sheetData>

--- a/quotations.xlsx
+++ b/quotations.xlsx
@@ -517,23 +517,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>944,40</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>70,00</t>
-        </is>
+          <t>935,94</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92,85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>62,00</t>
-        </is>
+          <t>91,38</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>28.9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -552,21 +548,21 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>266,34</t>
+          <t>243,24</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>141,19</t>
+          <t>139,95</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>792,34</t>
+          <t>785,37</t>
         </is>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45909.32527941401</v>
+        <v>45911.00767279046</v>
       </c>
     </row>
     <row r="3">
@@ -585,20 +581,16 @@
           <t>426,97</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>70,00</t>
-        </is>
+      <c r="D3" t="n">
+        <v>25</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>33,64</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>62,00</t>
-        </is>
+      <c r="F3" t="n">
+        <v>28.9</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -631,7 +623,7 @@
         </is>
       </c>
       <c r="M3" s="2" t="n">
-        <v>45909.32527941401</v>
+        <v>45911.00767279046</v>
       </c>
     </row>
   </sheetData>

--- a/quotations.xlsx
+++ b/quotations.xlsx
@@ -515,54 +515,38 @@
           <t>Prima.it</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>935,94</t>
-        </is>
+      <c r="C2" t="n">
+        <v>935.9400000000001</v>
       </c>
       <c r="D2" t="n">
         <v>25</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91,38</t>
-        </is>
+      <c r="E2" t="n">
+        <v>91.38</v>
       </c>
       <c r="F2" t="n">
         <v>28.9</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>25,00</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>160,34</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>211,33</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>243,24</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>139,95</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>785,37</t>
-        </is>
+      <c r="G2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>160.34</v>
+      </c>
+      <c r="I2" t="n">
+        <v>211.33</v>
+      </c>
+      <c r="J2" t="n">
+        <v>243.24</v>
+      </c>
+      <c r="K2" t="n">
+        <v>139.95</v>
+      </c>
+      <c r="L2" t="n">
+        <v>785.37</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45911.00767279046</v>
+        <v>45912.82603366111</v>
       </c>
     </row>
     <row r="3">
@@ -576,54 +560,34 @@
           <t>Prima.it</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>426,97</t>
-        </is>
+      <c r="C3" t="n">
+        <v>426.97</v>
       </c>
       <c r="D3" t="n">
         <v>25</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>33,64</t>
-        </is>
+      <c r="E3" t="n">
+        <v>33.64</v>
       </c>
       <c r="F3" t="n">
         <v>28.9</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>25,00</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>54,14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>192,16</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1.044,05</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>284,81</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1.409,87</t>
-        </is>
-      </c>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>192.16</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>284.81</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" s="2" t="n">
-        <v>45911.00767279046</v>
+        <v>45912.82603366111</v>
       </c>
     </row>
   </sheetData>
